--- a/Woche456/Screenshots/Statistics.xlsx
+++ b/Woche456/Screenshots/Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Studium\2.Sem-AuK_TI_Week4\Woche456\Screenshots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372CFC78-FDC3-45D9-939F-01E7DCAE6916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32C6868-DF82-496F-8BEF-6E6E21901BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D8EB21C7-1469-4ECA-BCE9-06DE430E0F2D}"/>
+    <workbookView minimized="1" xWindow="1620" yWindow="2115" windowWidth="34845" windowHeight="18705" xr2:uid="{D8EB21C7-1469-4ECA-BCE9-06DE430E0F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Elemente</t>
   </si>
@@ -61,39 +61,6 @@
     <t>Verhältnis</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
-    <t>Spalte2</t>
-  </si>
-  <si>
-    <t>Spalte3</t>
-  </si>
-  <si>
-    <t>Spalte4</t>
-  </si>
-  <si>
-    <t>Spalte5</t>
-  </si>
-  <si>
-    <t>Spalte0</t>
-  </si>
-  <si>
-    <t>Spalte22</t>
-  </si>
-  <si>
-    <t>Spalte33</t>
-  </si>
-  <si>
-    <t>Spalte44</t>
-  </si>
-  <si>
-    <t>Spalte55</t>
-  </si>
-  <si>
-    <t>Spalte23</t>
-  </si>
-  <si>
     <t>DIFF</t>
   </si>
   <si>
@@ -103,19 +70,7 @@
     <t>30k -&gt; 60k</t>
   </si>
   <si>
-    <t>Spalte6</t>
-  </si>
-  <si>
     <t>10k -&gt; 100k</t>
-  </si>
-  <si>
-    <t>Spalte7</t>
-  </si>
-  <si>
-    <t>2X</t>
-  </si>
-  <si>
-    <t>10X</t>
   </si>
   <si>
     <t>Speed Faktor</t>
@@ -131,6 +86,57 @@
   </si>
   <si>
     <t>besser als Quadratisch aber schlechter als linear</t>
+  </si>
+  <si>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Verdopplung von 10 auf 20k</t>
+  </si>
+  <si>
+    <t>Verdopplung von 30 auf 60k</t>
+  </si>
+  <si>
+    <t>Verzehnfachung von 10 auf 100k</t>
   </si>
 </sst>
 </file>
@@ -12034,15 +12040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12070,15 +12076,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12108,15 +12114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12145,16 +12151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12183,16 +12189,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12221,16 +12227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12375,13 +12381,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12412,15 +12418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12450,15 +12456,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12489,14 +12495,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12530,20 +12536,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CFE0FF3-B1D9-4172-9892-385A5C65415B}" name="Tabelle1" displayName="Tabelle1" ref="A4:N12" totalsRowShown="0">
   <autoFilter ref="A4:N12" xr:uid="{0CFE0FF3-B1D9-4172-9892-385A5C65415B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{248EB2FD-5CB3-47D5-9F66-0D354346EDB6}" name="Spalte0"/>
-    <tableColumn id="2" xr3:uid="{22FF0A28-9A4D-4F54-AFB1-60EAC3AA10ED}" name="Spalte2"/>
-    <tableColumn id="13" xr3:uid="{A437BA59-1F15-4635-94EA-2ED18D52C9C4}" name="Spalte23"/>
-    <tableColumn id="3" xr3:uid="{D0895BA8-ECEF-441D-8330-7E7F83EEE970}" name="Spalte3"/>
-    <tableColumn id="4" xr3:uid="{7E80307B-C58E-4CD8-B524-969C8F10FD11}" name="Spalte4"/>
-    <tableColumn id="5" xr3:uid="{E816AF54-F014-47E1-82BA-1705A7EBFB99}" name="Spalte5"/>
-    <tableColumn id="6" xr3:uid="{02671A84-254F-4FB5-BD29-D7D4ABD202FD}" name="Spalte1"/>
-    <tableColumn id="7" xr3:uid="{EF85B956-7ABC-4606-B11B-8E2B2D9D2BE1}" name="Spalte22"/>
-    <tableColumn id="8" xr3:uid="{DAB01968-0407-444D-B221-A788C327CA92}" name="Spalte33"/>
-    <tableColumn id="9" xr3:uid="{33880395-3BBD-407B-9882-A3DCFFF03955}" name="Spalte44"/>
-    <tableColumn id="10" xr3:uid="{308DE8C3-FE03-4DE4-9668-897C48C258BD}" name="Spalte55"/>
-    <tableColumn id="14" xr3:uid="{566168AC-2CC7-4622-8908-460084E29E7A}" name="DIFF"/>
-    <tableColumn id="15" xr3:uid="{3D0358E0-8CEB-4F6E-A96F-86E6FE020C63}" name="Spalte6"/>
-    <tableColumn id="16" xr3:uid="{C47E5DB3-6299-469B-BB82-C9B36DF04F7B}" name="Spalte7"/>
+    <tableColumn id="1" xr3:uid="{248EB2FD-5CB3-47D5-9F66-0D354346EDB6}" name="Categorie"/>
+    <tableColumn id="2" xr3:uid="{22FF0A28-9A4D-4F54-AFB1-60EAC3AA10ED}" name="1"/>
+    <tableColumn id="13" xr3:uid="{A437BA59-1F15-4635-94EA-2ED18D52C9C4}" name="2"/>
+    <tableColumn id="3" xr3:uid="{D0895BA8-ECEF-441D-8330-7E7F83EEE970}" name="3"/>
+    <tableColumn id="4" xr3:uid="{7E80307B-C58E-4CD8-B524-969C8F10FD11}" name="4"/>
+    <tableColumn id="5" xr3:uid="{E816AF54-F014-47E1-82BA-1705A7EBFB99}" name="5"/>
+    <tableColumn id="6" xr3:uid="{02671A84-254F-4FB5-BD29-D7D4ABD202FD}" name="6"/>
+    <tableColumn id="7" xr3:uid="{EF85B956-7ABC-4606-B11B-8E2B2D9D2BE1}" name="7"/>
+    <tableColumn id="8" xr3:uid="{DAB01968-0407-444D-B221-A788C327CA92}" name="8"/>
+    <tableColumn id="9" xr3:uid="{33880395-3BBD-407B-9882-A3DCFFF03955}" name="9"/>
+    <tableColumn id="10" xr3:uid="{308DE8C3-FE03-4DE4-9668-897C48C258BD}" name="10"/>
+    <tableColumn id="14" xr3:uid="{566168AC-2CC7-4622-8908-460084E29E7A}" name="11"/>
+    <tableColumn id="15" xr3:uid="{3D0358E0-8CEB-4F6E-A96F-86E6FE020C63}" name="12"/>
+    <tableColumn id="16" xr3:uid="{C47E5DB3-6299-469B-BB82-C9B36DF04F7B}" name="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12848,13 +12854,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B2267E-CCB5-46AB-9AC0-D8B7D8D1A43A}">
   <dimension ref="A3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -12871,57 +12879,57 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -12959,13 +12967,13 @@
         <v>1001</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -13003,15 +13011,15 @@
         <v>2</v>
       </c>
       <c r="L6" s="8">
-        <f>Tabelle1[[#This Row],[Spalte33]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[8]]/Tabelle1[[#This Row],[9]]</f>
         <v>2.1176470588235294</v>
       </c>
       <c r="M6" s="8">
-        <f>Tabelle1[[#This Row],[Spalte5]]/Tabelle1[[#This Row],[Spalte22]]</f>
+        <f>Tabelle1[[#This Row],[5]]/Tabelle1[[#This Row],[7]]</f>
         <v>2.1132075471698113</v>
       </c>
       <c r="N6" s="8">
-        <f>Tabelle1[[#This Row],[Spalte2]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[1]]/Tabelle1[[#This Row],[9]]</f>
         <v>10.235294117647058</v>
       </c>
     </row>
@@ -13050,15 +13058,15 @@
         <v>3</v>
       </c>
       <c r="L7" s="8">
-        <f>Tabelle1[[#This Row],[Spalte33]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[8]]/Tabelle1[[#This Row],[9]]</f>
         <v>4.9825072886297379</v>
       </c>
       <c r="M7" s="8">
-        <f>Tabelle1[[#This Row],[Spalte5]]/Tabelle1[[#This Row],[Spalte22]]</f>
+        <f>Tabelle1[[#This Row],[5]]/Tabelle1[[#This Row],[7]]</f>
         <v>5.7654428904428903</v>
       </c>
       <c r="N7" s="8">
-        <f>Tabelle1[[#This Row],[Spalte2]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[1]]/Tabelle1[[#This Row],[9]]</f>
         <v>227.99125364431487</v>
       </c>
     </row>
@@ -13097,15 +13105,15 @@
         <v>3</v>
       </c>
       <c r="L8" s="8">
-        <f>Tabelle1[[#This Row],[Spalte33]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[8]]/Tabelle1[[#This Row],[9]]</f>
         <v>4.868167202572347</v>
       </c>
       <c r="M8" s="8">
-        <f>Tabelle1[[#This Row],[Spalte5]]/Tabelle1[[#This Row],[Spalte22]]</f>
+        <f>Tabelle1[[#This Row],[5]]/Tabelle1[[#This Row],[7]]</f>
         <v>8.0461095100864561</v>
       </c>
       <c r="N8" s="8">
-        <f>Tabelle1[[#This Row],[Spalte2]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[1]]/Tabelle1[[#This Row],[9]]</f>
         <v>430.92604501607718</v>
       </c>
     </row>
@@ -13144,15 +13152,15 @@
         <v>2</v>
       </c>
       <c r="L9" s="8">
-        <f>Tabelle1[[#This Row],[Spalte33]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[8]]/Tabelle1[[#This Row],[9]]</f>
         <v>4.4774774774774775</v>
       </c>
       <c r="M9" s="8">
-        <f>Tabelle1[[#This Row],[Spalte5]]/Tabelle1[[#This Row],[Spalte22]]</f>
+        <f>Tabelle1[[#This Row],[5]]/Tabelle1[[#This Row],[7]]</f>
         <v>9.0861604738826056</v>
       </c>
       <c r="N9" s="8">
-        <f>Tabelle1[[#This Row],[Spalte2]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[1]]/Tabelle1[[#This Row],[9]]</f>
         <v>345.27027027027026</v>
       </c>
     </row>
@@ -13191,15 +13199,15 @@
         <v>3</v>
       </c>
       <c r="L10" s="8">
-        <f>Tabelle1[[#This Row],[Spalte33]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[8]]/Tabelle1[[#This Row],[9]]</f>
         <v>3.617283950617284</v>
       </c>
       <c r="M10" s="8">
-        <f>Tabelle1[[#This Row],[Spalte5]]/Tabelle1[[#This Row],[Spalte22]]</f>
+        <f>Tabelle1[[#This Row],[5]]/Tabelle1[[#This Row],[7]]</f>
         <v>4.7296195652173916</v>
       </c>
       <c r="N10" s="8">
-        <f>Tabelle1[[#This Row],[Spalte2]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[1]]/Tabelle1[[#This Row],[9]]</f>
         <v>46.520576131687243</v>
       </c>
     </row>
@@ -13248,15 +13256,15 @@
         <v>13</v>
       </c>
       <c r="L11" s="8">
-        <f>Tabelle1[[#This Row],[Spalte33]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[8]]/Tabelle1[[#This Row],[9]]</f>
         <v>4.3820093457943923</v>
       </c>
       <c r="M11" s="8">
-        <f>Tabelle1[[#This Row],[Spalte5]]/Tabelle1[[#This Row],[Spalte22]]</f>
+        <f>Tabelle1[[#This Row],[5]]/Tabelle1[[#This Row],[7]]</f>
         <v>7.2803945122336726</v>
       </c>
       <c r="N11" s="8">
-        <f>Tabelle1[[#This Row],[Spalte2]]/Tabelle1[[#This Row],[Spalte44]]</f>
+        <f>Tabelle1[[#This Row],[1]]/Tabelle1[[#This Row],[9]]</f>
         <v>249.19801401869159</v>
       </c>
     </row>
@@ -13305,15 +13313,15 @@
         <v>77</v>
       </c>
       <c r="L12" s="8">
-        <f>1/(Tabelle1[[#This Row],[Spalte33]]/Tabelle1[[#This Row],[Spalte44]])</f>
+        <f>1/(Tabelle1[[#This Row],[8]]/Tabelle1[[#This Row],[9]])</f>
         <v>2.1911142176536034</v>
       </c>
       <c r="M12" s="8">
-        <f>1/(Tabelle1[[#This Row],[Spalte5]]/Tabelle1[[#This Row],[Spalte22]])</f>
+        <f>1/(Tabelle1[[#This Row],[5]]/Tabelle1[[#This Row],[7]])</f>
         <v>3.6402579250599554</v>
       </c>
       <c r="N12" s="8">
-        <f>1/(Tabelle1[[#This Row],[Spalte2]]/Tabelle1[[#This Row],[Spalte44]])</f>
+        <f>1/(Tabelle1[[#This Row],[1]]/Tabelle1[[#This Row],[9]])</f>
         <v>1.3692907444987563</v>
       </c>
     </row>
@@ -13322,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <f>B6-C6</f>
@@ -13366,7 +13374,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16:K21" si="10">B7-C7</f>
@@ -13410,7 +13418,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <f t="shared" si="10"/>
@@ -13454,7 +13462,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <f t="shared" si="10"/>
@@ -13498,7 +13506,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <f t="shared" si="10"/>
@@ -13542,7 +13550,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <f t="shared" si="10"/>
@@ -13586,7 +13594,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <f t="shared" si="10"/>
@@ -13627,28 +13635,28 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -13706,13 +13714,13 @@
         <f>H27/G27</f>
         <v>2.0892857142857144</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="J27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -13743,13 +13751,13 @@
         <f t="shared" ref="I28:I32" si="11">H28/G28</f>
         <v>4.0956310679611647</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="J28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -13780,13 +13788,13 @@
         <f t="shared" si="11"/>
         <v>5.7772858091653756</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="J29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -13817,13 +13825,13 @@
         <f t="shared" si="11"/>
         <v>6.5631625441696109</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="J30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -13855,7 +13863,7 @@
         <v>3.4616947185142193</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
@@ -13898,17 +13906,17 @@
         <f t="shared" si="11"/>
         <v>5.260842005176694</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="J32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B33" s="9">
         <f>(B26/B32)</f>
